--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_39.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3349782.81800792</v>
+        <v>3345153.68908801</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2250409.381847139</v>
+        <v>2310564.14322317</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.093379124</v>
+        <v>419463.0933791242</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6942805.581711987</v>
+        <v>6940445.664150313</v>
       </c>
     </row>
     <row r="11">
@@ -662,19 +662,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>42.25226454469848</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
@@ -716,16 +716,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>303.8107397453774</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -786,7 +786,7 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>175.2139736830806</v>
@@ -795,10 +795,10 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
-        <v>214.2042218265615</v>
+        <v>30.81905345346217</v>
       </c>
       <c r="X3" t="n">
         <v>187.4140068734885</v>
@@ -814,31 +814,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>55.2856760226012</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>93.52529077486058</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>210.7114708494917</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>115.0498184496542</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -984,10 +984,10 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>98.88232439432859</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>87.41444223540508</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>98.54676348899872</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1038,7 +1038,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>177.5210747552478</v>
@@ -1054,25 +1054,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>132.093786331274</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>66.0314987001008</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>133.6646353546176</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>9.031127956876844</v>
@@ -1184,22 +1184,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>187.0089834881494</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>93.52529077486058</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>130.417892858628</v>
       </c>
       <c r="E10" t="n">
         <v>154.0032240193895</v>
@@ -1306,10 +1306,10 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1379,16 +1379,16 @@
         <v>304.5664151603044</v>
       </c>
       <c r="F11" t="n">
-        <v>43.01721371098662</v>
+        <v>318.7342196110055</v>
       </c>
       <c r="G11" t="n">
-        <v>315.0398534825604</v>
+        <v>155.5643041138303</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>127.274321941861</v>
       </c>
       <c r="U11" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>244.6944667292003</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C14" t="n">
         <v>295.2524720077822</v>
@@ -1613,7 +1613,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E14" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F14" t="n">
         <v>318.7342196110055</v>
@@ -1622,10 +1622,10 @@
         <v>315.0398534825604</v>
       </c>
       <c r="H14" t="n">
-        <v>53.2893115068999</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414337</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U14" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W14" t="n">
-        <v>273.297770207079</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>291.5668045419573</v>
+        <v>221.500551189591</v>
       </c>
       <c r="Y14" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C16" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D16" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E16" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F16" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G16" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H16" t="n">
-        <v>59.93249105380451</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I16" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S16" t="n">
         <v>106.7966485049597</v>
@@ -1822,13 +1822,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V16" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W16" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X16" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y16" t="n">
         <v>126.8896660972066</v>
@@ -1859,7 +1859,7 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135892</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
         <v>6.593776422875436</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C26" t="n">
         <v>295.2524720077822</v>
@@ -2561,7 +2561,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F26" t="n">
         <v>318.7342196110055</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2615,13 +2615,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049597</v>
@@ -2770,13 +2770,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414335</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404347</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007179</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C31" t="n">
-        <v>74.5117922803542</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219393</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507304</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484031</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723244</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380448</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497641</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U31" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>286.9034269003578</v>
+        <v>280.4599644277188</v>
       </c>
       <c r="C32" t="n">
-        <v>279.6573751281736</v>
+        <v>273.2139126555346</v>
       </c>
       <c r="D32" t="n">
-        <v>272.0003461415739</v>
+        <v>265.5568836689349</v>
       </c>
       <c r="E32" t="n">
-        <v>288.9713182806958</v>
+        <v>282.5278558080568</v>
       </c>
       <c r="F32" t="n">
-        <v>303.1391227313969</v>
+        <v>296.6956602587579</v>
       </c>
       <c r="G32" t="n">
-        <v>299.4447566029518</v>
+        <v>293.0012941303128</v>
       </c>
       <c r="H32" t="n">
-        <v>211.2558485752492</v>
+        <v>204.8123861026102</v>
       </c>
       <c r="I32" t="n">
-        <v>27.36737438453476</v>
+        <v>20.92391191189573</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>55.26204815443488</v>
+        <v>48.81858568179585</v>
       </c>
       <c r="T32" t="n">
-        <v>111.6792250622524</v>
+        <v>105.2357625896134</v>
       </c>
       <c r="U32" t="n">
-        <v>143.6088309158223</v>
+        <v>137.1653684431833</v>
       </c>
       <c r="V32" t="n">
-        <v>229.0993698495917</v>
+        <v>222.6559073769527</v>
       </c>
       <c r="W32" t="n">
-        <v>257.7026733274703</v>
+        <v>251.2592108548313</v>
       </c>
       <c r="X32" t="n">
-        <v>275.9717076623486</v>
+        <v>269.5282451897097</v>
       </c>
       <c r="Y32" t="n">
-        <v>282.9394306346798</v>
+        <v>276.4959681620408</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>73.7695671504632</v>
+        <v>67.32610467782418</v>
       </c>
       <c r="C34" t="n">
-        <v>58.91669540074561</v>
+        <v>52.47323292810658</v>
       </c>
       <c r="D34" t="n">
-        <v>44.49041061258534</v>
+        <v>38.04694813994631</v>
       </c>
       <c r="E34" t="n">
-        <v>44.41685266546445</v>
+        <v>37.97339019282542</v>
       </c>
       <c r="F34" t="n">
-        <v>46.16630408523172</v>
+        <v>39.72284161259269</v>
       </c>
       <c r="G34" t="n">
-        <v>56.98514200762385</v>
+        <v>50.54167953498482</v>
       </c>
       <c r="H34" t="n">
-        <v>44.33739417419589</v>
+        <v>37.89393170155687</v>
       </c>
       <c r="I34" t="n">
-        <v>22.17710975536782</v>
+        <v>15.7336472827288</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>13.07560811982374</v>
+        <v>6.632145647184714</v>
       </c>
       <c r="S34" t="n">
-        <v>91.20155162535106</v>
+        <v>84.75808915271203</v>
       </c>
       <c r="T34" t="n">
-        <v>123.7754899595231</v>
+        <v>117.3320274868841</v>
       </c>
       <c r="U34" t="n">
-        <v>172.998032486593</v>
+        <v>166.554570013954</v>
       </c>
       <c r="V34" t="n">
-        <v>153.7331803734589</v>
+        <v>147.2897179008199</v>
       </c>
       <c r="W34" t="n">
-        <v>170.9107266942091</v>
+        <v>164.4672642215701</v>
       </c>
       <c r="X34" t="n">
-        <v>122.1531476409217</v>
+        <v>115.7096851682826</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.294569217598</v>
+        <v>104.851106744959</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E35" t="n">
         <v>268.1977203190365</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F37" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
@@ -3484,13 +3484,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3515,13 +3515,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G38" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3563,10 +3563,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X38" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y38" t="n">
         <v>262.1658326730205</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E40" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G40" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253654</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U40" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>300.022958784051</v>
+        <v>84.40291811562977</v>
       </c>
       <c r="C41" t="n">
-        <v>292.7769070118667</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>285.119878025267</v>
       </c>
       <c r="E41" t="n">
-        <v>302.0908501643889</v>
+        <v>302.090850164389</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>316.2586546150901</v>
       </c>
       <c r="G41" t="n">
-        <v>312.5642884866448</v>
+        <v>312.564288486645</v>
       </c>
       <c r="H41" t="n">
         <v>224.3753804589423</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>40.48690626822794</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>68.38158003812806</v>
       </c>
       <c r="T41" t="n">
-        <v>41.52895018710473</v>
+        <v>124.7987569459456</v>
       </c>
       <c r="U41" t="n">
-        <v>156.7283627995154</v>
+        <v>156.7283627995155</v>
       </c>
       <c r="V41" t="n">
-        <v>242.2189017332848</v>
+        <v>242.2189017332849</v>
       </c>
       <c r="W41" t="n">
         <v>270.8222052111635</v>
       </c>
       <c r="X41" t="n">
-        <v>289.0912395460417</v>
+        <v>289.0912395460418</v>
       </c>
       <c r="Y41" t="n">
-        <v>296.0589625183729</v>
+        <v>296.058962518373</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.88909903415629</v>
+        <v>86.88909903415639</v>
       </c>
       <c r="C43" t="n">
-        <v>72.0362272844387</v>
+        <v>72.03622728443879</v>
       </c>
       <c r="D43" t="n">
-        <v>57.60994249627842</v>
+        <v>57.60994249627852</v>
       </c>
       <c r="E43" t="n">
-        <v>57.53638454915753</v>
+        <v>57.53638454915763</v>
       </c>
       <c r="F43" t="n">
-        <v>59.2858359689248</v>
+        <v>59.2858359689249</v>
       </c>
       <c r="G43" t="n">
-        <v>70.10467389131693</v>
+        <v>70.10467389131703</v>
       </c>
       <c r="H43" t="n">
-        <v>57.45692605788898</v>
+        <v>57.45692605788908</v>
       </c>
       <c r="I43" t="n">
-        <v>35.29664163906091</v>
+        <v>35.29664163906101</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>26.19514000351683</v>
+        <v>26.19514000351693</v>
       </c>
       <c r="S43" t="n">
-        <v>104.3210835090441</v>
+        <v>104.3210835090442</v>
       </c>
       <c r="T43" t="n">
-        <v>136.8950218432162</v>
+        <v>136.8950218432163</v>
       </c>
       <c r="U43" t="n">
-        <v>186.1175643702861</v>
+        <v>186.1175643702862</v>
       </c>
       <c r="V43" t="n">
-        <v>166.852712257152</v>
+        <v>166.8527122571521</v>
       </c>
       <c r="W43" t="n">
-        <v>184.0302585779022</v>
+        <v>184.0302585779023</v>
       </c>
       <c r="X43" t="n">
-        <v>135.2726795246147</v>
+        <v>135.2726795246148</v>
       </c>
       <c r="Y43" t="n">
-        <v>124.4141011012911</v>
+        <v>124.4141011012912</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>300.022958784051</v>
+        <v>300.0229587840511</v>
       </c>
       <c r="C44" t="n">
-        <v>292.7769070118667</v>
+        <v>292.7769070118669</v>
       </c>
       <c r="D44" t="n">
-        <v>285.119878025267</v>
+        <v>285.1198780252671</v>
       </c>
       <c r="E44" t="n">
-        <v>302.0908501643889</v>
+        <v>302.0908501643891</v>
       </c>
       <c r="F44" t="n">
-        <v>316.25865461509</v>
+        <v>316.2586546150902</v>
       </c>
       <c r="G44" t="n">
-        <v>312.5642884866448</v>
+        <v>312.564288486645</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>224.3753804589424</v>
       </c>
       <c r="I44" t="n">
-        <v>40.48690626822784</v>
+        <v>40.48690626822797</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.38158003812796</v>
+        <v>68.38158003812809</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>124.7987569459456</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>156.7283627995155</v>
       </c>
       <c r="V44" t="n">
-        <v>239.7244542574016</v>
+        <v>22.91319359903903</v>
       </c>
       <c r="W44" t="n">
-        <v>270.8222052111635</v>
+        <v>270.8222052111636</v>
       </c>
       <c r="X44" t="n">
-        <v>289.0912395460417</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>296.0589625183729</v>
+        <v>296.0589625183731</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>86.88909903415629</v>
+        <v>86.88909903415642</v>
       </c>
       <c r="C46" t="n">
-        <v>72.0362272844387</v>
+        <v>72.03622728443882</v>
       </c>
       <c r="D46" t="n">
-        <v>57.60994249627842</v>
+        <v>57.60994249627855</v>
       </c>
       <c r="E46" t="n">
-        <v>57.53638454915753</v>
+        <v>57.53638454915766</v>
       </c>
       <c r="F46" t="n">
-        <v>59.2858359689248</v>
+        <v>59.28583596892493</v>
       </c>
       <c r="G46" t="n">
-        <v>70.10467389131693</v>
+        <v>70.10467389131706</v>
       </c>
       <c r="H46" t="n">
-        <v>57.45692605788898</v>
+        <v>57.45692605788911</v>
       </c>
       <c r="I46" t="n">
-        <v>35.29664163906091</v>
+        <v>35.29664163906104</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>26.19514000351683</v>
+        <v>26.19514000351695</v>
       </c>
       <c r="S46" t="n">
-        <v>104.3210835090441</v>
+        <v>104.3210835090443</v>
       </c>
       <c r="T46" t="n">
-        <v>136.8950218432162</v>
+        <v>136.8950218432163</v>
       </c>
       <c r="U46" t="n">
-        <v>186.1175643702861</v>
+        <v>186.1175643702862</v>
       </c>
       <c r="V46" t="n">
-        <v>166.852712257152</v>
+        <v>166.8527122571522</v>
       </c>
       <c r="W46" t="n">
-        <v>184.0302585779022</v>
+        <v>184.0302585779023</v>
       </c>
       <c r="X46" t="n">
-        <v>135.2726795246147</v>
+        <v>135.2726795246149</v>
       </c>
       <c r="Y46" t="n">
-        <v>124.4141011012911</v>
+        <v>124.4141011012912</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>606.8446453861891</v>
+        <v>970.1574591199883</v>
       </c>
       <c r="C2" t="n">
-        <v>606.8446453861891</v>
+        <v>970.1574591199883</v>
       </c>
       <c r="D2" t="n">
-        <v>606.8446453861891</v>
+        <v>927.4784040243333</v>
       </c>
       <c r="E2" t="n">
-        <v>606.8446453861891</v>
+        <v>524.8948791408777</v>
       </c>
       <c r="F2" t="n">
-        <v>593.9906109565709</v>
+        <v>512.0408447112595</v>
       </c>
       <c r="G2" t="n">
-        <v>180.827855444574</v>
+        <v>502.9184932396668</v>
       </c>
       <c r="H2" t="n">
-        <v>180.827855444574</v>
+        <v>178.8354428061574</v>
       </c>
       <c r="I2" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J2" t="n">
-        <v>42.49073853703879</v>
+        <v>185.1480988074504</v>
       </c>
       <c r="K2" t="n">
-        <v>42.49073853703879</v>
+        <v>544.1304548349121</v>
       </c>
       <c r="L2" t="n">
-        <v>99.8184948954306</v>
+        <v>1037.450746553441</v>
       </c>
       <c r="M2" t="n">
-        <v>625.6413842912856</v>
+        <v>1037.450746553441</v>
       </c>
       <c r="N2" t="n">
-        <v>1151.464273687141</v>
+        <v>1538.617529548892</v>
       </c>
       <c r="O2" t="n">
-        <v>1591.503874579469</v>
+        <v>1538.617529548892</v>
       </c>
       <c r="P2" t="n">
-        <v>1939.691366710991</v>
+        <v>1886.805021680413</v>
       </c>
       <c r="Q2" t="n">
-        <v>2124.536926851939</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="R2" t="n">
-        <v>2124.536926851939</v>
+        <v>1986.923381216635</v>
       </c>
       <c r="S2" t="n">
-        <v>2124.536926851939</v>
+        <v>1820.409826157686</v>
       </c>
       <c r="T2" t="n">
-        <v>1901.036324411356</v>
+        <v>1596.909223717102</v>
       </c>
       <c r="U2" t="n">
-        <v>1645.283594845955</v>
+        <v>1341.156494151701</v>
       </c>
       <c r="V2" t="n">
-        <v>1303.176785549473</v>
+        <v>1341.156494151701</v>
       </c>
       <c r="W2" t="n">
-        <v>1303.176785549473</v>
+        <v>970.1574591199883</v>
       </c>
       <c r="X2" t="n">
-        <v>913.72418048253</v>
+        <v>970.1574591199883</v>
       </c>
       <c r="Y2" t="n">
-        <v>606.8446453861891</v>
+        <v>970.1574591199883</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>841.8567216770698</v>
+        <v>839.8643090386532</v>
       </c>
       <c r="C3" t="n">
-        <v>691.202491237162</v>
+        <v>689.2100785987454</v>
       </c>
       <c r="D3" t="n">
-        <v>561.1135238586423</v>
+        <v>559.1211112202258</v>
       </c>
       <c r="E3" t="n">
-        <v>424.66703296953</v>
+        <v>422.6746203311135</v>
       </c>
       <c r="F3" t="n">
-        <v>300.2352268526618</v>
+        <v>298.2428142142453</v>
       </c>
       <c r="G3" t="n">
-        <v>180.1754089245263</v>
+        <v>178.1829962861098</v>
       </c>
       <c r="H3" t="n">
-        <v>91.8779925251272</v>
+        <v>89.88557988671067</v>
       </c>
       <c r="I3" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J3" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="K3" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="L3" t="n">
-        <v>526.056824435352</v>
+        <v>524.0644117969355</v>
       </c>
       <c r="M3" t="n">
-        <v>1051.879713831207</v>
+        <v>1022.582728940212</v>
       </c>
       <c r="N3" t="n">
-        <v>1373.651552706068</v>
+        <v>1523.749511935663</v>
       </c>
       <c r="O3" t="n">
-        <v>1890.171835297049</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="P3" t="n">
-        <v>1890.171835297049</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="Q3" t="n">
-        <v>2124.536926851939</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="R3" t="n">
-        <v>2100.619883750004</v>
+        <v>2000.999251829178</v>
       </c>
       <c r="S3" t="n">
-        <v>1965.689206649873</v>
+        <v>2000.999251829178</v>
       </c>
       <c r="T3" t="n">
-        <v>1788.705394848781</v>
+        <v>1824.015440028086</v>
       </c>
       <c r="U3" t="n">
-        <v>1578.642251527423</v>
+        <v>1613.952296706728</v>
       </c>
       <c r="V3" t="n">
-        <v>1578.642251527423</v>
+        <v>1391.412295077795</v>
       </c>
       <c r="W3" t="n">
-        <v>1362.274350692512</v>
+        <v>1360.281938054096</v>
       </c>
       <c r="X3" t="n">
-        <v>1172.967273042524</v>
+        <v>1170.974860404107</v>
       </c>
       <c r="Y3" t="n">
-        <v>993.6530561180311</v>
+        <v>991.6606434796146</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>432.0126692024164</v>
+        <v>847.4753577584972</v>
       </c>
       <c r="C4" t="n">
-        <v>261.8075512684056</v>
+        <v>677.2702398244865</v>
       </c>
       <c r="D4" t="n">
-        <v>261.8075512684056</v>
+        <v>521.6371267270013</v>
       </c>
       <c r="E4" t="n">
-        <v>261.8075512684056</v>
+        <v>366.0783145862038</v>
       </c>
       <c r="F4" t="n">
-        <v>261.8075512684056</v>
+        <v>208.7523797991767</v>
       </c>
       <c r="G4" t="n">
-        <v>261.8075512684056</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="H4" t="n">
-        <v>205.963434073859</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="I4" t="n">
-        <v>72.86900871093684</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J4" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3257796469807</v>
+        <v>122.3333670085641</v>
       </c>
       <c r="L4" t="n">
-        <v>288.4534195207805</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M4" t="n">
-        <v>474.7449978590445</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N4" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O4" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P4" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q4" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R4" t="n">
-        <v>820.0367717111683</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="S4" t="n">
-        <v>617.2206878937177</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="T4" t="n">
-        <v>617.2206878937177</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="U4" t="n">
-        <v>617.2206878937177</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="V4" t="n">
-        <v>617.2206878937177</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="W4" t="n">
-        <v>617.2206878937177</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="X4" t="n">
-        <v>617.2206878937177</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="Y4" t="n">
-        <v>617.2206878937177</v>
+        <v>847.4753577584972</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1265.723434016127</v>
+        <v>992.5731332753533</v>
       </c>
       <c r="C5" t="n">
-        <v>872.5479325190579</v>
+        <v>599.3976317782838</v>
       </c>
       <c r="D5" t="n">
-        <v>872.5479325190579</v>
+        <v>386.5577622333426</v>
       </c>
       <c r="E5" t="n">
-        <v>872.5479325190579</v>
+        <v>386.5577622333426</v>
       </c>
       <c r="F5" t="n">
-        <v>455.6534940490357</v>
+        <v>373.7037278037244</v>
       </c>
       <c r="G5" t="n">
-        <v>42.49073853703879</v>
+        <v>364.5813763321316</v>
       </c>
       <c r="H5" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="I5" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J5" t="n">
-        <v>42.49073853703879</v>
+        <v>185.1480988074504</v>
       </c>
       <c r="K5" t="n">
-        <v>284.6640550363791</v>
+        <v>544.1304548349121</v>
       </c>
       <c r="L5" t="n">
-        <v>284.6640550363791</v>
+        <v>1037.450746553441</v>
       </c>
       <c r="M5" t="n">
-        <v>810.4869444322341</v>
+        <v>1538.617529548892</v>
       </c>
       <c r="N5" t="n">
-        <v>1336.309833828089</v>
+        <v>1584.876694038785</v>
       </c>
       <c r="O5" t="n">
-        <v>1776.349434720418</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="P5" t="n">
-        <v>2124.536926851939</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="Q5" t="n">
-        <v>2124.536926851939</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="R5" t="n">
-        <v>2124.536926851939</v>
+        <v>1986.923381216635</v>
       </c>
       <c r="S5" t="n">
-        <v>2008.324989024006</v>
+        <v>1986.923381216635</v>
       </c>
       <c r="T5" t="n">
-        <v>2008.324989024006</v>
+        <v>1986.923381216635</v>
       </c>
       <c r="U5" t="n">
-        <v>2008.324989024006</v>
+        <v>1731.170651651234</v>
       </c>
       <c r="V5" t="n">
-        <v>1666.218179727524</v>
+        <v>1389.063842354752</v>
       </c>
       <c r="W5" t="n">
-        <v>1666.218179727524</v>
+        <v>1389.063842354752</v>
       </c>
       <c r="X5" t="n">
-        <v>1666.218179727524</v>
+        <v>1389.063842354752</v>
       </c>
       <c r="Y5" t="n">
-        <v>1666.218179727524</v>
+        <v>992.5731332753533</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>841.8567216770698</v>
+        <v>695.2538207454966</v>
       </c>
       <c r="C6" t="n">
-        <v>691.202491237162</v>
+        <v>544.5995903055888</v>
       </c>
       <c r="D6" t="n">
-        <v>561.1135238586423</v>
+        <v>414.5106229270691</v>
       </c>
       <c r="E6" t="n">
-        <v>424.66703296953</v>
+        <v>278.0641320379568</v>
       </c>
       <c r="F6" t="n">
-        <v>300.2352268526618</v>
+        <v>178.1829962861098</v>
       </c>
       <c r="G6" t="n">
-        <v>180.1754089245263</v>
+        <v>178.1829962861098</v>
       </c>
       <c r="H6" t="n">
-        <v>91.8779925251272</v>
+        <v>89.88557988671067</v>
       </c>
       <c r="I6" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J6" t="n">
-        <v>155.6057207567662</v>
+        <v>153.6133081183496</v>
       </c>
       <c r="K6" t="n">
-        <v>155.6057207567662</v>
+        <v>153.6133081183496</v>
       </c>
       <c r="L6" t="n">
-        <v>639.1718066550794</v>
+        <v>637.1793940166629</v>
       </c>
       <c r="M6" t="n">
-        <v>847.8286633102128</v>
+        <v>1138.346177012113</v>
       </c>
       <c r="N6" t="n">
-        <v>1373.651552706068</v>
+        <v>1639.512960007564</v>
       </c>
       <c r="O6" t="n">
-        <v>1890.171835297049</v>
+        <v>1790.551203376222</v>
       </c>
       <c r="P6" t="n">
-        <v>1890.171835297049</v>
+        <v>1790.551203376222</v>
       </c>
       <c r="Q6" t="n">
-        <v>2124.536926851939</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="R6" t="n">
-        <v>2124.536926851939</v>
+        <v>2000.999251829178</v>
       </c>
       <c r="S6" t="n">
-        <v>2124.536926851939</v>
+        <v>1866.068574729047</v>
       </c>
       <c r="T6" t="n">
-        <v>2024.994741509516</v>
+        <v>1689.084762927955</v>
       </c>
       <c r="U6" t="n">
-        <v>1814.931598188158</v>
+        <v>1479.021619606597</v>
       </c>
       <c r="V6" t="n">
-        <v>1592.391596559225</v>
+        <v>1256.481617977664</v>
       </c>
       <c r="W6" t="n">
-        <v>1362.274350692512</v>
+        <v>1026.364372110951</v>
       </c>
       <c r="X6" t="n">
-        <v>1172.967273042524</v>
+        <v>1026.364372110951</v>
       </c>
       <c r="Y6" t="n">
-        <v>993.6530561180311</v>
+        <v>847.0501551864579</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>42.49073853703879</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="C7" t="n">
-        <v>42.49073853703879</v>
+        <v>808.5172814388877</v>
       </c>
       <c r="D7" t="n">
-        <v>42.49073853703879</v>
+        <v>652.8841683414024</v>
       </c>
       <c r="E7" t="n">
-        <v>42.49073853703879</v>
+        <v>497.3253562006049</v>
       </c>
       <c r="F7" t="n">
-        <v>42.49073853703879</v>
+        <v>497.3253562006049</v>
       </c>
       <c r="G7" t="n">
-        <v>42.49073853703879</v>
+        <v>329.0713023000504</v>
       </c>
       <c r="H7" t="n">
-        <v>42.49073853703879</v>
+        <v>173.5927512615444</v>
       </c>
       <c r="I7" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J7" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="K7" t="n">
-        <v>124.3257796469807</v>
+        <v>122.3333670085641</v>
       </c>
       <c r="L7" t="n">
-        <v>288.4534195207805</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M7" t="n">
-        <v>474.7449978590445</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N7" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O7" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P7" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="S7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="T7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="U7" t="n">
-        <v>658.4989693204923</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="V7" t="n">
-        <v>392.5196241413165</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="W7" t="n">
-        <v>109.1892220724941</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="X7" t="n">
-        <v>42.49073853703879</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="Y7" t="n">
-        <v>42.49073853703879</v>
+        <v>941.9453484401746</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1108.403851947556</v>
+        <v>1003.385499290815</v>
       </c>
       <c r="C8" t="n">
-        <v>715.2283504504862</v>
+        <v>610.2099977937452</v>
       </c>
       <c r="D8" t="n">
-        <v>329.787221667154</v>
+        <v>610.2099977937452</v>
       </c>
       <c r="E8" t="n">
-        <v>329.787221667154</v>
+        <v>207.6264729102897</v>
       </c>
       <c r="F8" t="n">
         <v>194.7724384806716</v>
@@ -4802,25 +4802,25 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L8" t="n">
-        <v>540.6332618200724</v>
+        <v>503.6092283712875</v>
       </c>
       <c r="M8" t="n">
-        <v>1086.634161864653</v>
+        <v>1049.610128415868</v>
       </c>
       <c r="N8" t="n">
-        <v>1614.445445502115</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O8" t="n">
-        <v>2054.485046394444</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4832,22 +4832,22 @@
         <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2161.142036303753</v>
+        <v>1972.24407318441</v>
       </c>
       <c r="U8" t="n">
-        <v>1905.389306738351</v>
+        <v>1716.491343619009</v>
       </c>
       <c r="V8" t="n">
-        <v>1905.389306738351</v>
+        <v>1374.384534322527</v>
       </c>
       <c r="W8" t="n">
-        <v>1905.389306738351</v>
+        <v>1003.385499290815</v>
       </c>
       <c r="X8" t="n">
-        <v>1905.389306738351</v>
+        <v>1003.385499290815</v>
       </c>
       <c r="Y8" t="n">
-        <v>1508.898597658953</v>
+        <v>1003.385499290815</v>
       </c>
     </row>
     <row r="9">
@@ -4893,13 +4893,13 @@
         <v>1549.231189288413</v>
       </c>
       <c r="N9" t="n">
-        <v>2134.729194295015</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="O9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>854.2900019614187</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C10" t="n">
-        <v>684.084884027408</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="D10" t="n">
-        <v>528.4517709299226</v>
+        <v>817.0247473313507</v>
       </c>
       <c r="E10" t="n">
-        <v>372.8929587891251</v>
+        <v>661.4659351905532</v>
       </c>
       <c r="F10" t="n">
-        <v>215.5670240020981</v>
+        <v>504.1400004035262</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>335.8859465029718</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="I10" t="n">
         <v>47.31297010154361</v>
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1320.171044252415</v>
+        <v>1480.983092530629</v>
       </c>
       <c r="C11" t="n">
-        <v>1021.936224042534</v>
+        <v>1182.748272320748</v>
       </c>
       <c r="D11" t="n">
-        <v>731.4357765463905</v>
+        <v>892.2478248246039</v>
       </c>
       <c r="E11" t="n">
-        <v>423.792932950123</v>
+        <v>584.6049812283368</v>
       </c>
       <c r="F11" t="n">
-        <v>380.341201928924</v>
+        <v>262.6512240455029</v>
       </c>
       <c r="G11" t="n">
-        <v>62.11912770411553</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411553</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5069,22 +5069,22 @@
         <v>3034.383511434015</v>
       </c>
       <c r="T11" t="n">
-        <v>2905.82359028062</v>
+        <v>2905.823590280621</v>
       </c>
       <c r="U11" t="n">
-        <v>2745.011542002407</v>
+        <v>2905.823590280621</v>
       </c>
       <c r="V11" t="n">
-        <v>2497.845413993113</v>
+        <v>2658.657462271327</v>
       </c>
       <c r="W11" t="n">
-        <v>2221.787060248589</v>
+        <v>2382.599108526803</v>
       </c>
       <c r="X11" t="n">
-        <v>1927.275136468834</v>
+        <v>2088.087184747048</v>
       </c>
       <c r="Y11" t="n">
-        <v>1625.725108676624</v>
+        <v>1786.537156954838</v>
       </c>
     </row>
     <row r="12">
@@ -5121,22 +5121,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L12" t="n">
-        <v>62.11912770411553</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M12" t="n">
-        <v>689.8907773307967</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N12" t="n">
-        <v>1345.668748541356</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O12" t="n">
-        <v>1862.189031132337</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P12" t="n">
-        <v>2267.810399848734</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669551002</v>
+        <v>493.0843669551003</v>
       </c>
       <c r="C13" t="n">
-        <v>417.8199303082778</v>
+        <v>417.8199303082779</v>
       </c>
       <c r="D13" t="n">
-        <v>357.1274984979809</v>
+        <v>357.127498497981</v>
       </c>
       <c r="E13" t="n">
-        <v>296.5093676443717</v>
+        <v>296.5093676443718</v>
       </c>
       <c r="F13" t="n">
-        <v>234.124114144533</v>
+        <v>234.1241141445331</v>
       </c>
       <c r="G13" t="n">
         <v>160.810741531167</v>
       </c>
       <c r="H13" t="n">
-        <v>100.2728717798493</v>
+        <v>100.2728717798495</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
@@ -5200,7 +5200,7 @@
         <v>125.3967468362514</v>
       </c>
       <c r="K13" t="n">
-        <v>300.2831496757667</v>
+        <v>300.2831496757665</v>
       </c>
       <c r="L13" t="n">
         <v>557.4621512791396</v>
@@ -5209,13 +5209,13 @@
         <v>836.805091346977</v>
       </c>
       <c r="N13" t="n">
-        <v>1113.04608710776</v>
+        <v>1113.046087107759</v>
       </c>
       <c r="O13" t="n">
         <v>1368.802215879041</v>
       </c>
       <c r="P13" t="n">
-        <v>1581.729743385193</v>
+        <v>1581.729743385192</v>
       </c>
       <c r="Q13" t="n">
         <v>1678.203301484817</v>
@@ -5230,19 +5230,19 @@
         <v>1400.589220329742</v>
       </c>
       <c r="U13" t="n">
-        <v>1210.091109858832</v>
+        <v>1210.091109858831</v>
       </c>
       <c r="V13" t="n">
         <v>1039.052445966844</v>
       </c>
       <c r="W13" t="n">
-        <v>850.6627251852103</v>
+        <v>850.6627251852101</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553818</v>
+        <v>711.5230842553816</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.3517043592135</v>
+        <v>583.3517043592133</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1695.897093415104</v>
+        <v>1827.815439560372</v>
       </c>
       <c r="C14" t="n">
-        <v>1397.662273205223</v>
+        <v>1529.580619350491</v>
       </c>
       <c r="D14" t="n">
-        <v>1107.161825709079</v>
+        <v>1239.080171854347</v>
       </c>
       <c r="E14" t="n">
-        <v>799.518982112812</v>
+        <v>931.4373282580796</v>
       </c>
       <c r="F14" t="n">
-        <v>477.5652249299781</v>
+        <v>609.4835710752457</v>
       </c>
       <c r="G14" t="n">
-        <v>159.3431507051696</v>
+        <v>291.2614968504365</v>
       </c>
       <c r="H14" t="n">
-        <v>105.5155633244624</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129444</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404062</v>
       </c>
       <c r="L14" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M14" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N14" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O14" t="n">
         <v>2572.923332933306</v>
@@ -5306,22 +5306,22 @@
         <v>3034.383511434015</v>
       </c>
       <c r="T14" t="n">
-        <v>3034.383511434015</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U14" t="n">
-        <v>2873.571463155803</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="V14" t="n">
-        <v>2873.571463155803</v>
+        <v>2658.657462271327</v>
       </c>
       <c r="W14" t="n">
-        <v>2597.513109411278</v>
+        <v>2658.657462271327</v>
       </c>
       <c r="X14" t="n">
-        <v>2303.001185631524</v>
+        <v>2434.919531776791</v>
       </c>
       <c r="Y14" t="n">
-        <v>2001.451157839313</v>
+        <v>2133.36950398458</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>865.4243596646552</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N15" t="n">
-        <v>1458.313011372373</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O15" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.0843669551002</v>
+        <v>493.0843669551003</v>
       </c>
       <c r="C16" t="n">
-        <v>417.8199303082777</v>
+        <v>417.8199303082779</v>
       </c>
       <c r="D16" t="n">
-        <v>357.1274984979808</v>
+        <v>357.127498497981</v>
       </c>
       <c r="E16" t="n">
-        <v>296.5093676443717</v>
+        <v>296.5093676443718</v>
       </c>
       <c r="F16" t="n">
-        <v>234.1241141445332</v>
+        <v>234.1241141445331</v>
       </c>
       <c r="G16" t="n">
-        <v>160.8107415311671</v>
+        <v>160.810741531167</v>
       </c>
       <c r="H16" t="n">
-        <v>100.2728717798494</v>
+        <v>100.2728717798493</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
@@ -5437,19 +5437,19 @@
         <v>125.3967468362513</v>
       </c>
       <c r="K16" t="n">
-        <v>300.2831496757664</v>
+        <v>300.2831496757665</v>
       </c>
       <c r="L16" t="n">
-        <v>557.4621512791393</v>
+        <v>557.4621512791396</v>
       </c>
       <c r="M16" t="n">
-        <v>836.8050913469767</v>
+        <v>836.805091346977</v>
       </c>
       <c r="N16" t="n">
         <v>1113.046087107759</v>
       </c>
       <c r="O16" t="n">
-        <v>1368.80221587904</v>
+        <v>1368.802215879041</v>
       </c>
       <c r="P16" t="n">
         <v>1581.729743385192</v>
@@ -5467,19 +5467,19 @@
         <v>1400.589220329742</v>
       </c>
       <c r="U16" t="n">
-        <v>1210.091109858832</v>
+        <v>1210.091109858831</v>
       </c>
       <c r="V16" t="n">
         <v>1039.052445966844</v>
       </c>
       <c r="W16" t="n">
-        <v>850.6627251852102</v>
+        <v>850.6627251852101</v>
       </c>
       <c r="X16" t="n">
         <v>711.5230842553816</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.3517043592132</v>
+        <v>583.3517043592133</v>
       </c>
     </row>
     <row r="17">
@@ -5492,31 +5492,31 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924243</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L17" t="n">
         <v>1059.071548358934</v>
@@ -5604,13 +5604,13 @@
         <v>1606.310991511064</v>
       </c>
       <c r="N18" t="n">
-        <v>2262.088962721623</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O18" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5671,16 +5671,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>278.5901810446697</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>442.7178209184696</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M19" t="n">
-        <v>629.0093992567336</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N19" t="n">
         <v>812.1990332879427</v>
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D20" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129445</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404064</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M20" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
@@ -5771,28 +5771,28 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V20" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y20" t="n">
         <v>1882.877496443165</v>
@@ -5829,25 +5829,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N21" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O21" t="n">
-        <v>1740.468202408463</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="P21" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5902,7 +5902,7 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5914,16 +5914,16 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>313.661451296041</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N22" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O22" t="n">
-        <v>845.8474307072222</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P22" t="n">
         <v>1094.779966106229</v>
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G23" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H23" t="n">
         <v>68.77950792924224</v>
@@ -5993,13 +5993,13 @@
         <v>565.7512566404055</v>
       </c>
       <c r="L23" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M23" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O23" t="n">
         <v>2572.923332933306</v>
@@ -6008,7 +6008,7 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R23" t="n">
         <v>3105.956385205777</v>
@@ -6023,13 +6023,13 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W23" t="n">
         <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y23" t="n">
         <v>1882.877496443166</v>
@@ -6069,22 +6069,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843826</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M24" t="n">
-        <v>1223.947919817482</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1942.349816659396</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P24" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6151,16 +6151,16 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>437.1381783102856</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>623.4297566485496</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879427</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P25" t="n">
         <v>1094.779966106229</v>
@@ -6227,19 +6227,19 @@
         <v>218.0146318563784</v>
       </c>
       <c r="K26" t="n">
-        <v>576.9969878838402</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L26" t="n">
-        <v>1163.368641331942</v>
+        <v>1193.338156614365</v>
       </c>
       <c r="M26" t="n">
-        <v>1802.420903106096</v>
+        <v>1832.390418388519</v>
       </c>
       <c r="N26" t="n">
-        <v>2423.283548473132</v>
+        <v>2453.253063755555</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647883</v>
+        <v>2986.344026377456</v>
       </c>
       <c r="P26" t="n">
         <v>3334.531518508978</v>
@@ -6251,10 +6251,10 @@
         <v>3668.242947377514</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605753</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452358</v>
       </c>
       <c r="U26" t="n">
         <v>3307.298104174145</v>
@@ -6266,7 +6266,7 @@
         <v>2784.073622420327</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640573</v>
       </c>
       <c r="Y26" t="n">
         <v>2188.011670848362</v>
@@ -6303,25 +6303,25 @@
         <v>73.36485894755027</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755027</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>393.1040050097767</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>876.6700909080899</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>1235.193651060917</v>
+        <v>1219.402140121646</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>1875.180111332205</v>
       </c>
       <c r="O27" t="n">
-        <v>1751.713933651898</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="P27" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985353</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517126</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414159</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879678</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746017</v>
+        <v>172.0564727746018</v>
       </c>
       <c r="H28" t="n">
         <v>111.5186030232841</v>
@@ -6382,28 +6382,28 @@
         <v>73.36485894755027</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796862</v>
+        <v>136.6424780796857</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192015</v>
+        <v>311.5288809192008</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225739</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904118</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P28" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R28" t="n">
         <v>1660.488724648017</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286452</v>
+        <v>861.9084564286451</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988166</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026483</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424151</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.22278621427</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D29" t="n">
         <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.07949512186</v>
+        <v>986.0794951218602</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390261</v>
+        <v>664.1257379390263</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142176</v>
+        <v>345.9036637142178</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,22 +6461,22 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K29" t="n">
-        <v>763.0997113429868</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1349.471364791089</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1988.523626565243</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
-        <v>2609.386271932278</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O29" t="n">
-        <v>3079.395388107029</v>
+        <v>3049.425872824607</v>
       </c>
       <c r="P29" t="n">
         <v>3427.582880238551</v>
@@ -6488,7 +6488,7 @@
         <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
         <v>3468.110152452356</v>
@@ -6546,19 +6546,19 @@
         <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>579.4156798503576</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>579.4156798503576</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>2273.334693965057</v>
       </c>
       <c r="O30" t="n">
-        <v>1751.713933651898</v>
+        <v>2273.334693965057</v>
       </c>
       <c r="P30" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6601,7 +6601,7 @@
         <v>429.0656615517125</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
         <v>307.7550988878065</v>
@@ -6622,49 +6622,49 @@
         <v>136.6424780796862</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192008</v>
+        <v>311.5288809192015</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225736</v>
+        <v>568.7078825225744</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904109</v>
+        <v>848.0508225904118</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122475</v>
+        <v>1380.047947122476</v>
       </c>
       <c r="P31" t="n">
-        <v>1592.975474628627</v>
+        <v>1592.975474628628</v>
       </c>
       <c r="Q31" t="n">
-        <v>1689.449032728251</v>
+        <v>1689.449032728252</v>
       </c>
       <c r="R31" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.613322117754</v>
+        <v>1552.613322117755</v>
       </c>
       <c r="T31" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.336841102266</v>
+        <v>1221.336841102267</v>
       </c>
       <c r="V31" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286447</v>
+        <v>861.9084564286452</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988163</v>
+        <v>722.7688154988166</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026479</v>
+        <v>594.5974356026483</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1767.367013084638</v>
+        <v>1719.814764781097</v>
       </c>
       <c r="C32" t="n">
-        <v>1484.884815985472</v>
+        <v>1443.841115634092</v>
       </c>
       <c r="D32" t="n">
-        <v>1210.136991600044</v>
+        <v>1175.601839200824</v>
       </c>
       <c r="E32" t="n">
-        <v>918.2467711144923</v>
+        <v>890.2201666674332</v>
       </c>
       <c r="F32" t="n">
-        <v>612.0456370423742</v>
+        <v>590.5275805474757</v>
       </c>
       <c r="G32" t="n">
-        <v>309.5761859282816</v>
+        <v>294.5666773855437</v>
       </c>
       <c r="H32" t="n">
-        <v>96.1864398926765</v>
+        <v>87.68547930209935</v>
       </c>
       <c r="I32" t="n">
-        <v>68.54262738304544</v>
+        <v>66.55021474462892</v>
       </c>
       <c r="J32" t="n">
-        <v>213.1924002918736</v>
+        <v>211.199987653457</v>
       </c>
       <c r="K32" t="n">
-        <v>680.6652639597212</v>
+        <v>570.1823436809188</v>
       </c>
       <c r="L32" t="n">
-        <v>1282.476063318636</v>
+        <v>1063.502635399448</v>
       </c>
       <c r="M32" t="n">
-        <v>1828.476963363216</v>
+        <v>1609.503535444028</v>
       </c>
       <c r="N32" t="n">
-        <v>2454.058715987473</v>
+        <v>2239.568548578348</v>
       </c>
       <c r="O32" t="n">
-        <v>2894.098316879801</v>
+        <v>2794.477684958975</v>
       </c>
       <c r="P32" t="n">
-        <v>3242.285809011323</v>
+        <v>3142.665177090497</v>
       </c>
       <c r="Q32" t="n">
-        <v>3427.131369152272</v>
+        <v>3327.510737231446</v>
       </c>
       <c r="R32" t="n">
-        <v>3427.131369152272</v>
+        <v>3327.510737231446</v>
       </c>
       <c r="S32" t="n">
-        <v>3371.311118491227</v>
+        <v>3278.199034522562</v>
       </c>
       <c r="T32" t="n">
-        <v>3258.503820448548</v>
+        <v>3171.900284432043</v>
       </c>
       <c r="U32" t="n">
-        <v>3113.44439528105</v>
+        <v>3033.349407216706</v>
       </c>
       <c r="V32" t="n">
-        <v>2882.030890382473</v>
+        <v>2808.44445027029</v>
       </c>
       <c r="W32" t="n">
-        <v>2621.725159748664</v>
+        <v>2554.647267588642</v>
       </c>
       <c r="X32" t="n">
-        <v>2342.965859079625</v>
+        <v>2282.396514871763</v>
       </c>
       <c r="Y32" t="n">
-        <v>2057.168454398131</v>
+        <v>2003.107658142429</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>867.9086105230764</v>
+        <v>865.9161978846598</v>
       </c>
       <c r="C33" t="n">
-        <v>717.2543800831686</v>
+        <v>715.261967444752</v>
       </c>
       <c r="D33" t="n">
-        <v>587.1654127046489</v>
+        <v>585.1730000662324</v>
       </c>
       <c r="E33" t="n">
-        <v>450.7189218155366</v>
+        <v>448.7265091771201</v>
       </c>
       <c r="F33" t="n">
-        <v>326.2871156986685</v>
+        <v>324.2947030602519</v>
       </c>
       <c r="G33" t="n">
-        <v>206.2272977705329</v>
+        <v>204.2348851321164</v>
       </c>
       <c r="H33" t="n">
-        <v>117.9298813711339</v>
+        <v>115.9374687327173</v>
       </c>
       <c r="I33" t="n">
-        <v>68.54262738304544</v>
+        <v>66.55021474462892</v>
       </c>
       <c r="J33" t="n">
-        <v>68.54262738304544</v>
+        <v>179.6651969643563</v>
       </c>
       <c r="K33" t="n">
-        <v>91.02736238753999</v>
+        <v>499.4043430265828</v>
       </c>
       <c r="L33" t="n">
-        <v>574.5934482858532</v>
+        <v>982.9704289248959</v>
       </c>
       <c r="M33" t="n">
-        <v>574.5934482858532</v>
+        <v>1610.742078551577</v>
       </c>
       <c r="N33" t="n">
-        <v>1230.371419496412</v>
+        <v>1634.000375574393</v>
       </c>
       <c r="O33" t="n">
-        <v>1746.891702087393</v>
+        <v>2150.520658165374</v>
       </c>
       <c r="P33" t="n">
-        <v>2152.513070803791</v>
+        <v>2150.520658165374</v>
       </c>
       <c r="Q33" t="n">
-        <v>2386.878162358681</v>
+        <v>2384.885749720265</v>
       </c>
       <c r="R33" t="n">
-        <v>2362.961119256746</v>
+        <v>2360.968706618329</v>
       </c>
       <c r="S33" t="n">
-        <v>2228.030442156615</v>
+        <v>2226.038029518198</v>
       </c>
       <c r="T33" t="n">
-        <v>2051.046630355523</v>
+        <v>2049.054217717106</v>
       </c>
       <c r="U33" t="n">
-        <v>1840.983487034165</v>
+        <v>1838.991074395748</v>
       </c>
       <c r="V33" t="n">
-        <v>1618.443485405232</v>
+        <v>1616.451072766815</v>
       </c>
       <c r="W33" t="n">
-        <v>1388.326239538519</v>
+        <v>1386.333826900102</v>
       </c>
       <c r="X33" t="n">
-        <v>1199.019161888531</v>
+        <v>1197.026749250114</v>
       </c>
       <c r="Y33" t="n">
-        <v>1019.704944964038</v>
+        <v>1017.712532325621</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>389.2395048590199</v>
+        <v>341.6872565554789</v>
       </c>
       <c r="C34" t="n">
-        <v>329.7276913229132</v>
+        <v>288.6839909715329</v>
       </c>
       <c r="D34" t="n">
-        <v>284.7878826233321</v>
+        <v>250.2527302241124</v>
       </c>
       <c r="E34" t="n">
-        <v>239.9223748804387</v>
+        <v>211.8957704333796</v>
       </c>
       <c r="F34" t="n">
-        <v>193.2897444913157</v>
+        <v>171.7716879964173</v>
       </c>
       <c r="G34" t="n">
-        <v>135.7289949886654</v>
+        <v>120.7194864459276</v>
       </c>
       <c r="H34" t="n">
-        <v>90.94374834806345</v>
+        <v>82.44278775748629</v>
       </c>
       <c r="I34" t="n">
-        <v>68.54262738304544</v>
+        <v>66.55021474462892</v>
       </c>
       <c r="J34" t="n">
-        <v>68.54262738304544</v>
+        <v>66.55021474462892</v>
       </c>
       <c r="K34" t="n">
-        <v>150.3776684929873</v>
+        <v>148.3852558545708</v>
       </c>
       <c r="L34" t="n">
-        <v>343.1384592729405</v>
+        <v>427.382431216669</v>
       </c>
       <c r="M34" t="n">
-        <v>637.9205452515903</v>
+        <v>627.5238173231644</v>
       </c>
       <c r="N34" t="n">
-        <v>929.6006869231853</v>
+        <v>925.582986842672</v>
       </c>
       <c r="O34" t="n">
-        <v>1200.795961605279</v>
+        <v>1203.157289372678</v>
       </c>
       <c r="P34" t="n">
-        <v>1429.162635022244</v>
+        <v>1323.033455149257</v>
       </c>
       <c r="Q34" t="n">
-        <v>1432.584831392295</v>
+        <v>1326.455651519308</v>
       </c>
       <c r="R34" t="n">
-        <v>1419.377146422776</v>
+        <v>1319.75651450195</v>
       </c>
       <c r="S34" t="n">
-        <v>1327.254367003229</v>
+        <v>1234.142283034564</v>
       </c>
       <c r="T34" t="n">
-        <v>1202.228619569367</v>
+        <v>1115.625083552863</v>
       </c>
       <c r="U34" t="n">
-        <v>1027.483132209172</v>
+        <v>947.3881441448284</v>
       </c>
       <c r="V34" t="n">
-        <v>872.1970914279005</v>
+        <v>798.6106513157173</v>
       </c>
       <c r="W34" t="n">
-        <v>699.5599937569823</v>
+        <v>632.4821015969596</v>
       </c>
       <c r="X34" t="n">
-        <v>576.1729759378695</v>
+        <v>515.6036317300075</v>
       </c>
       <c r="Y34" t="n">
-        <v>463.754219152417</v>
+        <v>409.6934228967155</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6968,7 +6968,7 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V35" t="n">
         <v>2644.789635573994</v>
@@ -6980,7 +6980,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="36">
@@ -7023,16 +7023,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>978.5393418843826</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O36" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P36" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7099,16 +7099,16 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M37" t="n">
-        <v>623.4297566485498</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879427</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296507</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P37" t="n">
         <v>1094.779966106229</v>
@@ -7123,22 +7123,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U37" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H38" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7211,13 +7211,13 @@
         <v>2644.789635573995</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.467337224692</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="39">
@@ -7251,22 +7251,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860694</v>
+        <v>378.9738643893075</v>
       </c>
       <c r="L39" t="n">
-        <v>596.176270190801</v>
+        <v>862.5399502876207</v>
       </c>
       <c r="M39" t="n">
-        <v>1223.947919817482</v>
+        <v>1490.311599914302</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P39" t="n">
         <v>2146.089571124861</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462914</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7336,7 +7336,7 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>437.1381783102858</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
         <v>623.4297566485498</v>
@@ -7351,31 +7351,31 @@
         <v>1089.200323498045</v>
       </c>
       <c r="Q40" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S40" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918803</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1493.358828862812</v>
+        <v>1557.973630753168</v>
       </c>
       <c r="C41" t="n">
-        <v>1197.624579355876</v>
+        <v>1557.973630753168</v>
       </c>
       <c r="D41" t="n">
-        <v>909.6247025626773</v>
+        <v>1269.973753959969</v>
       </c>
       <c r="E41" t="n">
-        <v>604.482429669355</v>
+        <v>964.8314810666463</v>
       </c>
       <c r="F41" t="n">
-        <v>604.482429669355</v>
+        <v>645.3782945867574</v>
       </c>
       <c r="G41" t="n">
-        <v>288.7609261474915</v>
+        <v>329.6567910648937</v>
       </c>
       <c r="H41" t="n">
-        <v>62.11912770411553</v>
+        <v>103.0149926215175</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7436,25 +7436,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3105.956385205776</v>
+        <v>3036.88408213696</v>
       </c>
       <c r="T41" t="n">
-        <v>3064.007950673347</v>
+        <v>2910.82473168651</v>
       </c>
       <c r="U41" t="n">
-        <v>2905.696473098079</v>
+        <v>2752.513254111242</v>
       </c>
       <c r="V41" t="n">
-        <v>2661.03091579173</v>
+        <v>2507.847696804894</v>
       </c>
       <c r="W41" t="n">
-        <v>2387.473132750151</v>
+        <v>2234.289913763314</v>
       </c>
       <c r="X41" t="n">
-        <v>2095.461779673341</v>
+        <v>1942.278560686504</v>
       </c>
       <c r="Y41" t="n">
-        <v>1796.412322584076</v>
+        <v>1643.229103597238</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>1493.196009291336</v>
+        <v>1319.055322752795</v>
       </c>
       <c r="N42" t="n">
-        <v>1493.196009291336</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>475.5803720344855</v>
+        <v>475.5803720344863</v>
       </c>
       <c r="C43" t="n">
-        <v>402.8165060906081</v>
+        <v>402.8165060906087</v>
       </c>
       <c r="D43" t="n">
-        <v>344.6246449832561</v>
+        <v>344.6246449832566</v>
       </c>
       <c r="E43" t="n">
-        <v>286.5070848325919</v>
+        <v>286.5070848325923</v>
       </c>
       <c r="F43" t="n">
-        <v>226.6224020356982</v>
+        <v>226.6224020356985</v>
       </c>
       <c r="G43" t="n">
-        <v>155.809600125277</v>
+        <v>155.8096001252772</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77230107690433</v>
+        <v>97.77230107690443</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>127.8475561822077</v>
+        <v>127.8475561822076</v>
       </c>
       <c r="K43" t="n">
-        <v>305.1847683676792</v>
+        <v>305.184768367679</v>
       </c>
       <c r="L43" t="n">
-        <v>564.8145793170086</v>
+        <v>564.8145793170083</v>
       </c>
       <c r="M43" t="n">
-        <v>846.6083287308022</v>
+        <v>846.608328730802</v>
       </c>
       <c r="N43" t="n">
-        <v>1125.300133837541</v>
+        <v>1065.684527822773</v>
       </c>
       <c r="O43" t="n">
-        <v>1383.507071954779</v>
+        <v>1323.891465940011</v>
       </c>
       <c r="P43" t="n">
-        <v>1598.885408806887</v>
+        <v>1539.269802792119</v>
       </c>
       <c r="Q43" t="n">
-        <v>1638.194170237697</v>
+        <v>1638.194170237699</v>
       </c>
       <c r="R43" t="n">
-        <v>1611.734432860408</v>
+        <v>1611.734432860409</v>
       </c>
       <c r="S43" t="n">
-        <v>1506.35960103309</v>
+        <v>1506.359601033092</v>
       </c>
       <c r="T43" t="n">
-        <v>1368.081801191458</v>
+        <v>1368.081801191459</v>
       </c>
       <c r="U43" t="n">
-        <v>1180.084261423492</v>
+        <v>1180.084261423493</v>
       </c>
       <c r="V43" t="n">
-        <v>1011.54616823445</v>
+        <v>1011.546168234451</v>
       </c>
       <c r="W43" t="n">
-        <v>825.6570181557604</v>
+        <v>825.6570181557615</v>
       </c>
       <c r="X43" t="n">
-        <v>689.0179479288769</v>
+        <v>689.0179479288779</v>
       </c>
       <c r="Y43" t="n">
-        <v>563.3471387356535</v>
+        <v>563.3471387356544</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1627.066081816727</v>
+        <v>1853.707880260104</v>
       </c>
       <c r="C44" t="n">
-        <v>1331.331832309791</v>
+        <v>1557.973630753168</v>
       </c>
       <c r="D44" t="n">
-        <v>1043.331955516592</v>
+        <v>1269.973753959969</v>
       </c>
       <c r="E44" t="n">
-        <v>738.1896826232696</v>
+        <v>964.8314810666466</v>
       </c>
       <c r="F44" t="n">
-        <v>418.7364961433809</v>
+        <v>645.3782945867574</v>
       </c>
       <c r="G44" t="n">
-        <v>103.0149926215174</v>
+        <v>329.6567910648937</v>
       </c>
       <c r="H44" t="n">
-        <v>103.0149926215174</v>
+        <v>103.0149926215175</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7676,22 +7676,22 @@
         <v>3036.88408213696</v>
       </c>
       <c r="T44" t="n">
-        <v>3036.88408213696</v>
+        <v>2910.82473168651</v>
       </c>
       <c r="U44" t="n">
-        <v>3036.88408213696</v>
+        <v>2752.513254111242</v>
       </c>
       <c r="V44" t="n">
-        <v>2794.738168745645</v>
+        <v>2729.368614112213</v>
       </c>
       <c r="W44" t="n">
-        <v>2521.180385704066</v>
+        <v>2455.810831070633</v>
       </c>
       <c r="X44" t="n">
-        <v>2229.169032627256</v>
+        <v>2455.810831070633</v>
       </c>
       <c r="Y44" t="n">
-        <v>1930.11957553799</v>
+        <v>2156.761373981368</v>
       </c>
     </row>
     <row r="45">
@@ -7734,13 +7734,13 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>2122.831274102045</v>
       </c>
       <c r="P45" t="n">
         <v>2146.089571124861</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>475.5803720344855</v>
+        <v>475.5803720344864</v>
       </c>
       <c r="C46" t="n">
-        <v>402.8165060906081</v>
+        <v>402.8165060906088</v>
       </c>
       <c r="D46" t="n">
-        <v>344.6246449832561</v>
+        <v>344.6246449832568</v>
       </c>
       <c r="E46" t="n">
-        <v>286.5070848325919</v>
+        <v>286.5070848325925</v>
       </c>
       <c r="F46" t="n">
-        <v>226.6224020356982</v>
+        <v>226.6224020356986</v>
       </c>
       <c r="G46" t="n">
-        <v>155.809600125277</v>
+        <v>155.8096001252773</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77230107690433</v>
+        <v>97.77230107690445</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>68.23195016743711</v>
+        <v>127.8475561822076</v>
       </c>
       <c r="K46" t="n">
-        <v>245.5691623529086</v>
+        <v>305.184768367679</v>
       </c>
       <c r="L46" t="n">
-        <v>505.198973302238</v>
+        <v>564.8145793170083</v>
       </c>
       <c r="M46" t="n">
-        <v>786.9927227160317</v>
+        <v>846.6083287308019</v>
       </c>
       <c r="N46" t="n">
-        <v>1065.684527822771</v>
+        <v>1065.684527822774</v>
       </c>
       <c r="O46" t="n">
-        <v>1323.891465940008</v>
+        <v>1323.891465940011</v>
       </c>
       <c r="P46" t="n">
-        <v>1539.269802792117</v>
+        <v>1539.269802792119</v>
       </c>
       <c r="Q46" t="n">
-        <v>1638.194170237697</v>
+        <v>1638.1941702377</v>
       </c>
       <c r="R46" t="n">
-        <v>1611.734432860408</v>
+        <v>1611.73443286041</v>
       </c>
       <c r="S46" t="n">
-        <v>1506.35960103309</v>
+        <v>1506.359601033092</v>
       </c>
       <c r="T46" t="n">
-        <v>1368.081801191458</v>
+        <v>1368.08180119146</v>
       </c>
       <c r="U46" t="n">
-        <v>1180.084261423492</v>
+        <v>1180.084261423494</v>
       </c>
       <c r="V46" t="n">
-        <v>1011.54616823445</v>
+        <v>1011.546168234451</v>
       </c>
       <c r="W46" t="n">
-        <v>825.6570181557604</v>
+        <v>825.6570181557618</v>
       </c>
       <c r="X46" t="n">
-        <v>689.0179479288769</v>
+        <v>689.017947928878</v>
       </c>
       <c r="Y46" t="n">
-        <v>563.3471387356535</v>
+        <v>563.3471387356545</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>211.1549943349279</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>680.859283310712</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>680.252723050769</v>
+        <v>655.3475650705624</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P2" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>284.0050350352606</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8064,19 +8064,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>623.5213537622967</v>
+        <v>595.9409777495914</v>
       </c>
       <c r="N3" t="n">
-        <v>410.3941723237231</v>
+        <v>591.6011865869449</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>598.9166326216672</v>
       </c>
       <c r="P3" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,25 +8213,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>387.6779147947326</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>680.859283310712</v>
+        <v>655.9541253305056</v>
       </c>
       <c r="N5" t="n">
-        <v>680.252723050769</v>
+        <v>195.8449201154538</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
         <v>144.4986984183922</v>
@@ -8301,13 +8301,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>303.1516237211638</v>
+        <v>598.6161957820901</v>
       </c>
       <c r="N6" t="n">
-        <v>616.5063445671515</v>
+        <v>591.6011865869449</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>245.2514410794532</v>
       </c>
       <c r="P6" t="n">
         <v>87.08336481931465</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
         <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
-        <v>651.5514946987026</v>
+        <v>468.0425993879824</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8468,10 +8468,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>277.8952841518222</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8541,16 +8541,16 @@
         <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>673.3036524843452</v>
       </c>
       <c r="O9" t="n">
-        <v>325.939387961783</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P9" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8705,7 +8705,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P11" t="n">
-        <v>502.0059847475131</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
         <v>331.2113854294513</v>
@@ -8769,25 +8769,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>459.8553156798577</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
-        <v>204.7702368236083</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9003,7 +9003,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
@@ -9012,19 +9012,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>684.2495388215582</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P15" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9252,16 +9252,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
-        <v>212.2488719779076</v>
+        <v>228.1998931286865</v>
       </c>
       <c r="P18" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9477,7 +9477,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
@@ -9486,19 +9486,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>454.5321323046928</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>206.6446779083334</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9641,7 +9641,7 @@
         <v>505.666843611017</v>
       </c>
       <c r="L23" t="n">
-        <v>651.5514946987026</v>
+        <v>651.5514946987036</v>
       </c>
       <c r="M23" t="n">
         <v>701.2411122488187</v>
@@ -9717,25 +9717,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>535.2177063841971</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9951,7 +9951,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
@@ -9960,19 +9960,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>454.5321323046924</v>
+        <v>324.3235533562095</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10194,22 +10194,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>163.9964000092955</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>206.6446779083334</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10425,25 +10425,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>112.3087888732268</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>108.8653421701425</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q33" t="n">
         <v>327.7205688679246</v>
@@ -10671,19 +10671,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>324.3235533562099</v>
       </c>
       <c r="N36" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10899,25 +10899,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>412.5657697396227</v>
+        <v>409.6522249143353</v>
       </c>
       <c r="L39" t="n">
-        <v>192.2856137303845</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
         <v>327.7205688679246</v>
@@ -11136,7 +11136,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
         <v>412.5657697396227</v>
@@ -11145,19 +11145,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>436.3426582800314</v>
       </c>
       <c r="N42" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
-        <v>342.4574509263909</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11382,7 +11382,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
         <v>85.37211285416666</v>
@@ -11391,7 +11391,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>110.5765941352903</v>
       </c>
       <c r="Q45" t="n">
         <v>327.7205688679246</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>275.7170059000189</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>159.47554936873</v>
       </c>
       <c r="H11" t="n">
         <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
-        <v>42.96247126414336</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>173.5616339479579</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,19 +23546,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V14" t="n">
-        <v>244.6944667292003</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>70.0662533523663</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -25625,10 +25625,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>215.6200406684212</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>292.7769070118668</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25637,7 +25637,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>316.25865461509</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25646,7 +25646,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>40.48690626822784</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,10 +25676,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.38158003812796</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>83.26980675884079</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>224.3753804589423</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25916,19 +25916,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>124.7987569459455</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>156.7283627995154</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>2.49444747588322</v>
+        <v>219.3057081342459</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>289.0912395460419</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>601901.7485625095</v>
+        <v>600698.653334989</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>601901.7485625095</v>
+        <v>600698.653334989</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>576993.1522866654</v>
+        <v>576993.1522866656</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>610646.9240580328</v>
+        <v>610646.9240580329</v>
       </c>
     </row>
     <row r="8">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>579283.916355636</v>
+        <v>579283.9163556359</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>579283.916355636</v>
+        <v>579283.9163556359</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>703295.4945640912</v>
+        <v>703295.4945640911</v>
       </c>
       <c r="C2" t="n">
         <v>703295.4945640913</v>
@@ -26320,37 +26320,37 @@
         <v>703295.4945640913</v>
       </c>
       <c r="E2" t="n">
-        <v>660956.8784646288</v>
+        <v>660956.8784646291</v>
       </c>
       <c r="F2" t="n">
-        <v>660956.8784646289</v>
+        <v>660956.8784646284</v>
       </c>
       <c r="G2" t="n">
+        <v>703295.4945640907</v>
+      </c>
+      <c r="H2" t="n">
+        <v>703295.4945640907</v>
+      </c>
+      <c r="I2" t="n">
+        <v>703295.4945640909</v>
+      </c>
+      <c r="J2" t="n">
+        <v>703295.4945640911</v>
+      </c>
+      <c r="K2" t="n">
+        <v>703295.4945640911</v>
+      </c>
+      <c r="L2" t="n">
+        <v>703295.494564091</v>
+      </c>
+      <c r="M2" t="n">
         <v>703295.4945640906</v>
       </c>
-      <c r="H2" t="n">
-        <v>703295.4945640909</v>
-      </c>
-      <c r="I2" t="n">
-        <v>703295.4945640907</v>
-      </c>
-      <c r="J2" t="n">
-        <v>703295.4945640912</v>
-      </c>
-      <c r="K2" t="n">
-        <v>703295.4945640913</v>
-      </c>
-      <c r="L2" t="n">
-        <v>703295.4945640916</v>
-      </c>
-      <c r="M2" t="n">
-        <v>703295.4945640909</v>
-      </c>
       <c r="N2" t="n">
-        <v>703295.4945640907</v>
+        <v>703295.494564091</v>
       </c>
       <c r="O2" t="n">
-        <v>663838.8074546236</v>
+        <v>663838.8074546235</v>
       </c>
       <c r="P2" t="n">
         <v>663838.8074546235</v>
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>177995.2971343506</v>
+        <v>169649.0058765498</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>18724.12238602665</v>
+        <v>26460.41160941822</v>
       </c>
       <c r="E3" t="n">
         <v>130452.9311377121</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29094.95587301435</v>
+        <v>29094.95587301434</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>221845.8749469665</v>
+        <v>215329.5897923933</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>41571.03337670122</v>
+        <v>46725.80335481244</v>
       </c>
       <c r="M3" t="n">
-        <v>42731.2769343685</v>
+        <v>43782.97194555667</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>18983.55983015688</v>
+        <v>18983.55983015682</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>213463.5449614853</v>
+        <v>218972.6240101879</v>
       </c>
       <c r="C4" t="n">
-        <v>213463.5449614853</v>
+        <v>218972.6240101879</v>
       </c>
       <c r="D4" t="n">
         <v>200129.9340579131</v>
@@ -26445,19 +26445,19 @@
         <v>174211.0764483299</v>
       </c>
       <c r="L4" t="n">
-        <v>173888.2217936687</v>
+        <v>173754.827184614</v>
       </c>
       <c r="M4" t="n">
         <v>173460.5839839468</v>
       </c>
       <c r="N4" t="n">
-        <v>173460.5839839468</v>
+        <v>173460.5839839467</v>
       </c>
       <c r="O4" t="n">
-        <v>150530.8792394563</v>
+        <v>150530.8792394562</v>
       </c>
       <c r="P4" t="n">
-        <v>150530.8792394563</v>
+        <v>150530.8792394561</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65920.56128814947</v>
+        <v>64406.32768295292</v>
       </c>
       <c r="C5" t="n">
-        <v>65920.56128814947</v>
+        <v>64406.32768295292</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26485,7 +26485,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551967</v>
@@ -26494,10 +26494,10 @@
         <v>63659.04525391951</v>
       </c>
       <c r="K5" t="n">
-        <v>63659.04525391951</v>
+        <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61305.21346446766</v>
+        <v>60332.67530588339</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26506,10 +26506,10 @@
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>55320.40778255073</v>
+        <v>55320.40778255072</v>
       </c>
       <c r="P5" t="n">
-        <v>55320.40778255073</v>
+        <v>55320.40778255072</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26519,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>245916.0911801058</v>
+        <v>250267.5369944004</v>
       </c>
       <c r="C6" t="n">
-        <v>423911.3883144566</v>
+        <v>419916.5428709505</v>
       </c>
       <c r="D6" t="n">
-        <v>414855.9808429785</v>
+        <v>407119.6916195868</v>
       </c>
       <c r="E6" t="n">
-        <v>326535.3944775428</v>
+        <v>326426.8339234419</v>
       </c>
       <c r="F6" t="n">
-        <v>456988.325615255</v>
+        <v>456879.7650611533</v>
       </c>
       <c r="G6" t="n">
-        <v>442570.1853916098</v>
+        <v>442570.18539161</v>
       </c>
       <c r="H6" t="n">
         <v>471665.1412646244</v>
@@ -26543,25 +26543,25 @@
         <v>471665.1412646244</v>
       </c>
       <c r="J6" t="n">
-        <v>243579.4979148752</v>
+        <v>250095.7830694484</v>
       </c>
       <c r="K6" t="n">
-        <v>465425.3728618419</v>
+        <v>465425.3728618416</v>
       </c>
       <c r="L6" t="n">
-        <v>426531.025929254</v>
+        <v>422482.1887187812</v>
       </c>
       <c r="M6" t="n">
-        <v>428933.8643302559</v>
+        <v>427882.1693190674</v>
       </c>
       <c r="N6" t="n">
-        <v>471665.1412646243</v>
+        <v>471665.1412646246</v>
       </c>
       <c r="O6" t="n">
-        <v>439003.9606024598</v>
+        <v>438902.7896098713</v>
       </c>
       <c r="P6" t="n">
-        <v>457987.5204326165</v>
+        <v>457886.3494400283</v>
       </c>
     </row>
   </sheetData>
@@ -26695,7 +26695,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="F2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
+        <v>93.99127447431644</v>
+      </c>
+      <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
-      <c r="K2" t="n">
-        <v>93.99127447431647</v>
-      </c>
       <c r="L2" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26722,10 +26722,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>96.46683947023197</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="P2" t="n">
-        <v>96.46683947023197</v>
+        <v>96.46683947023185</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129848</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="C4" t="n">
-        <v>531.1342317129848</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26805,7 +26805,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
         <v>776.4890963014442</v>
@@ -26814,10 +26814,10 @@
         <v>917.0607368443784</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>856.782842288068</v>
+        <v>831.8776843078615</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>36.36869484126794</v>
+        <v>36.36869484126792</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57.62257963304853</v>
+        <v>57.6225796330485</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>51.96379172087653</v>
+        <v>58.40725419351556</v>
       </c>
       <c r="M2" t="n">
-        <v>20.77359796165932</v>
+        <v>14.33013548902032</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>23.7294497876961</v>
+        <v>23.72944978769603</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129848</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>60.27789455631023</v>
+        <v>85.18305253651681</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>671.7058722559191</v>
+        <v>646.8007142757125</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>104.7832240455251</v>
+        <v>129.6883820257316</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>36.36869484126794</v>
+        <v>36.36869484126792</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>57.62257963304853</v>
+        <v>57.6225796330485</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>531.1342317129848</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>60.27789455631023</v>
+        <v>85.18305253651681</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27382,19 +27382,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>339.3344529508005</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>88.71506224322746</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27515,10 +27515,10 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>13.61185158148447</v>
+        <v>196.9970199545838</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>98.63808950551976</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
@@ -27603,7 +27603,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>127.3556497966625</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>170.8752466460072</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>49.79860105870576</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27704,10 +27704,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>24.30516366137093</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>76.66721019408189</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27758,7 +27758,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27774,25 +27774,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>36.40928042339667</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -27828,16 +27828,16 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>165.7080202947459</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>279.0608587307044</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>34.25661292802806</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>89.83064772952768</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>23.65888910788243</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28026,10 +28026,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K16" t="n">
         <v>93.99127447431644</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="17">
@@ -28743,19 +28743,19 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>5.636002634529035</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="K19" t="n">
-        <v>35.71049010668817</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28822,7 +28822,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J20" t="n">
-        <v>9.379164112033322e-13</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -28986,19 +28986,19 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>5.636002634529092</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -29223,19 +29223,19 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>5.636002634529149</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>5.636002634529063</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901306</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O26" t="n">
-        <v>30.27223765901311</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431647</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
-        <v>30.27223765901266</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>30.27223765901277</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="32">
@@ -29746,46 +29746,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="C32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="D32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="E32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="F32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="G32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="H32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="I32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>109.5863713539251</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>109.5863713539251</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>98.75804948161033</v>
+        <v>103.2865954513717</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="T32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="U32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="V32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="W32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="X32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="Y32" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
     </row>
     <row r="33">
@@ -29904,28 +29904,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="C34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="D34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="E34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="F34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="G34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="H34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="I34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="J34" t="n">
         <v>30.07448747215907</v>
@@ -29934,46 +29934,46 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>28.92237465268016</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="M34" t="n">
-        <v>109.5863713539251</v>
+        <v>13.98970481639529</v>
       </c>
       <c r="N34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="O34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="P34" t="n">
-        <v>109.5863713539251</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="S34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="T34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="U34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="V34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="W34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="X34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="Y34" t="n">
-        <v>109.5863713539251</v>
+        <v>116.0298338265641</v>
       </c>
     </row>
     <row r="35">
@@ -30171,13 +30171,13 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M37" t="n">
-        <v>130.3599693155844</v>
+        <v>5.636002634528609</v>
       </c>
       <c r="N37" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -30408,11 +30408,11 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
@@ -30423,10 +30423,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>5.636002634529465</v>
       </c>
       <c r="R40" t="n">
-        <v>128.2979821082774</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>96.46683947023197</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="C41" t="n">
-        <v>96.46683947023197</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="D41" t="n">
-        <v>96.46683947023197</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="E41" t="n">
-        <v>96.46683947023197</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="F41" t="n">
-        <v>96.46683947023197</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="G41" t="n">
-        <v>96.46683947023197</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="H41" t="n">
-        <v>96.46683947023197</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="I41" t="n">
-        <v>96.46683947023197</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>96.46683947023197</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="T41" t="n">
-        <v>96.46683947023197</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="U41" t="n">
-        <v>96.46683947023197</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="V41" t="n">
-        <v>96.46683947023197</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="W41" t="n">
-        <v>96.46683947023197</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="X41" t="n">
-        <v>96.46683947023197</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="Y41" t="n">
-        <v>96.46683947023197</v>
+        <v>96.46683947023187</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>96.46683947023197</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="C43" t="n">
-        <v>96.46683947023197</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="D43" t="n">
-        <v>96.46683947023197</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="E43" t="n">
-        <v>96.46683947023197</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="F43" t="n">
-        <v>96.46683947023197</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="G43" t="n">
-        <v>96.46683947023197</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="H43" t="n">
-        <v>96.46683947023197</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="I43" t="n">
-        <v>96.46683947023197</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="J43" t="n">
-        <v>96.46683947023197</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="K43" t="n">
-        <v>96.46683947023197</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="L43" t="n">
-        <v>96.46683947023197</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="M43" t="n">
-        <v>96.46683947023197</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="N43" t="n">
-        <v>96.46683947023197</v>
+        <v>36.24905561693103</v>
       </c>
       <c r="O43" t="n">
-        <v>96.46683947023197</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="P43" t="n">
-        <v>96.46683947023197</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="Q43" t="n">
-        <v>36.24905561692847</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="R43" t="n">
-        <v>96.46683947023197</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="S43" t="n">
-        <v>96.46683947023197</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="T43" t="n">
-        <v>96.46683947023197</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="U43" t="n">
-        <v>96.46683947023197</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="V43" t="n">
-        <v>96.46683947023197</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="W43" t="n">
-        <v>96.46683947023197</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="X43" t="n">
-        <v>96.46683947023197</v>
+        <v>96.46683947023187</v>
       </c>
       <c r="Y43" t="n">
-        <v>96.46683947023197</v>
+        <v>96.46683947023187</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>96.46683947023197</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="C44" t="n">
-        <v>96.46683947023197</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="D44" t="n">
-        <v>96.46683947023197</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="E44" t="n">
-        <v>96.46683947023197</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="F44" t="n">
-        <v>96.46683947023197</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="G44" t="n">
-        <v>96.46683947023197</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="H44" t="n">
-        <v>96.46683947023197</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="I44" t="n">
-        <v>96.46683947023197</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30739,31 +30739,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-13</v>
       </c>
       <c r="R44" t="n">
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>96.46683947023197</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="T44" t="n">
-        <v>96.46683947023197</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="U44" t="n">
-        <v>96.46683947023197</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="V44" t="n">
-        <v>96.46683947023197</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="W44" t="n">
-        <v>96.46683947023197</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="X44" t="n">
-        <v>96.46683947023197</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="Y44" t="n">
-        <v>96.46683947023197</v>
+        <v>96.46683947023185</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>96.46683947023197</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="C46" t="n">
-        <v>96.46683947023197</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="D46" t="n">
-        <v>96.46683947023197</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="E46" t="n">
-        <v>96.46683947023197</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="F46" t="n">
-        <v>96.46683947023197</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="G46" t="n">
-        <v>96.46683947023197</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="H46" t="n">
-        <v>96.46683947023197</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="I46" t="n">
-        <v>96.46683947023197</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="J46" t="n">
-        <v>36.24905561692835</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="K46" t="n">
-        <v>96.46683947023197</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="L46" t="n">
-        <v>96.46683947023197</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="M46" t="n">
-        <v>96.46683947023197</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="N46" t="n">
-        <v>96.46683947023197</v>
+        <v>36.24905561693183</v>
       </c>
       <c r="O46" t="n">
-        <v>96.46683947023197</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="P46" t="n">
-        <v>96.46683947023197</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="Q46" t="n">
-        <v>96.46683947023197</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="R46" t="n">
-        <v>96.46683947023197</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="S46" t="n">
-        <v>96.46683947023197</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="T46" t="n">
-        <v>96.46683947023197</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="U46" t="n">
-        <v>96.46683947023197</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="V46" t="n">
-        <v>96.46683947023197</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="W46" t="n">
-        <v>96.46683947023197</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="X46" t="n">
-        <v>96.46683947023197</v>
+        <v>96.46683947023185</v>
       </c>
       <c r="Y46" t="n">
-        <v>96.46683947023197</v>
+        <v>96.46683947023185</v>
       </c>
     </row>
   </sheetData>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>57.90682460443618</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>531.1342317129848</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>531.1342317129848</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>139.5063366168684</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34784,19 +34784,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>531.1342317129848</v>
+        <v>503.5538557002795</v>
       </c>
       <c r="N3" t="n">
-        <v>325.0220594695564</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>244.6195116154952</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>531.1342317129848</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="N5" t="n">
-        <v>531.1342317129848</v>
+        <v>46.72642877766971</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35021,13 +35021,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>210.7645016718519</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="N6" t="n">
-        <v>531.1342317129848</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>152.5638821905643</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>498.303324968211</v>
+        <v>314.7944296574907</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35188,10 +35188,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>127.593836910897</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35261,16 +35261,16 @@
         <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>587.9315396301786</v>
       </c>
       <c r="O9" t="n">
-        <v>233.2518290728942</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35425,7 +35425,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P11" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
         <v>186.7126870110591</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>374.483202825691</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>113.7820836676943</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
         <v>322.9688344062893</v>
@@ -35732,19 +35732,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>598.8774259673916</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K16" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L16" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M16" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N16" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O16" t="n">
         <v>258.3395240113953</v>
@@ -35823,7 +35823,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35972,16 +35972,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>119.5613130890187</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>118.3721477934981</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>165.78549482202</v>
+        <v>171.421497456549</v>
       </c>
       <c r="M19" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>146.1108817260899</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K20" t="n">
         <v>362.6084404317796</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
@@ -36206,19 +36206,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>362.1450102553808</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589873</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36282,19 +36282,19 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>165.78549482202</v>
+        <v>171.4214974565491</v>
       </c>
       <c r="M22" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N22" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>169.9842521716079</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
         <v>3.456764010152483</v>
@@ -36361,7 +36361,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L23" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682118</v>
       </c>
       <c r="M23" t="n">
         <v>551.5160606510915</v>
@@ -36437,25 +36437,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828091</v>
+        <v>442.5301474953082</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36519,19 +36519,19 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>190.6760370094879</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P25" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724872</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
@@ -36595,10 +36595,10 @@
         <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>592.2945994425274</v>
+        <v>528.575562627224</v>
       </c>
       <c r="M26" t="n">
         <v>645.507335125408</v>
@@ -36607,16 +36607,16 @@
         <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>474.7566830047994</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>280.7039614853755</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698318</v>
+        <v>56.37828989698316</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
         <v>322.9688344062893</v>
@@ -36680,19 +36680,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>362.1450102553805</v>
+        <v>231.9364313068976</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004055</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
         <v>456.5997149060961</v>
@@ -36844,16 +36844,16 @@
         <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>474.756683004799</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065877</v>
+        <v>381.9767751656005</v>
       </c>
       <c r="Q29" t="n">
         <v>186.7126870110591</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698319</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,22 +36914,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>73.9360531523773</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>409.7185542589873</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.9167870021574</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446895</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,19 +37069,19 @@
         <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>472.1948117857047</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>607.889696322136</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>631.9007602265215</v>
+        <v>636.4293061962828</v>
       </c>
       <c r="O32" t="n">
-        <v>444.4844453457863</v>
+        <v>560.5142791723504</v>
       </c>
       <c r="P32" t="n">
         <v>351.7045375065877</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>22.71185353989349</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>23.49322931597588</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>236.7324157120106</v>
@@ -37230,19 +37230,19 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>194.7078694747001</v>
+        <v>281.8153286485841</v>
       </c>
       <c r="M34" t="n">
-        <v>297.759682806717</v>
+        <v>202.1630162691872</v>
       </c>
       <c r="N34" t="n">
-        <v>294.6264057288839</v>
+        <v>301.0698682015229</v>
       </c>
       <c r="O34" t="n">
-        <v>273.9346208910039</v>
+        <v>280.3780833636429</v>
       </c>
       <c r="P34" t="n">
-        <v>230.6734074918832</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
         <v>3.456764010152483</v>
@@ -37391,19 +37391,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>231.936431306898</v>
       </c>
       <c r="N36" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37467,13 +37467,13 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376044</v>
       </c>
       <c r="M37" t="n">
-        <v>318.5332807683764</v>
+        <v>193.8093140873206</v>
       </c>
       <c r="N37" t="n">
-        <v>190.6760370094878</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
         <v>164.3482495370789</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>322.9688344062893</v>
+        <v>320.0552895810019</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2252668734663</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>236.7324157120106</v>
@@ -37704,10 +37704,10 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
-        <v>296.1454641376044</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683763</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
@@ -37719,10 +37719,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644681948</v>
       </c>
       <c r="R40" t="n">
-        <v>5.636002634528635</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
         <v>322.9688344062893</v>
@@ -37865,19 +37865,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>343.9555362307195</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
-        <v>249.769892037502</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>66.39235199807291</v>
+        <v>66.3923519980728</v>
       </c>
       <c r="K43" t="n">
         <v>179.1284971570419</v>
@@ -37944,19 +37944,19 @@
         <v>262.2523342922519</v>
       </c>
       <c r="M43" t="n">
-        <v>284.640150923024</v>
+        <v>284.6401509230238</v>
       </c>
       <c r="N43" t="n">
-        <v>281.5068738451907</v>
+        <v>221.2890899918898</v>
       </c>
       <c r="O43" t="n">
-        <v>260.8150890073108</v>
+        <v>260.8150890073107</v>
       </c>
       <c r="P43" t="n">
-        <v>217.5538756081901</v>
+        <v>217.55387560819</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.70581962708095</v>
+        <v>99.92360348038436</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38035,7 +38035,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38102,7 +38102,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38111,7 +38111,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>23.49322931597565</v>
       </c>
       <c r="Q45" t="n">
         <v>236.7324157120106</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>6.174568144769271</v>
+        <v>66.39235199807277</v>
       </c>
       <c r="K46" t="n">
-        <v>179.1284971570419</v>
+        <v>179.1284971570418</v>
       </c>
       <c r="L46" t="n">
-        <v>262.2523342922519</v>
+        <v>262.2523342922518</v>
       </c>
       <c r="M46" t="n">
-        <v>284.640150923024</v>
+        <v>284.6401509230238</v>
       </c>
       <c r="N46" t="n">
-        <v>281.5068738451907</v>
+        <v>221.2890899918906</v>
       </c>
       <c r="O46" t="n">
-        <v>260.8150890073108</v>
+        <v>260.8150890073107</v>
       </c>
       <c r="P46" t="n">
-        <v>217.5538756081901</v>
+        <v>217.55387560819</v>
       </c>
       <c r="Q46" t="n">
-        <v>99.92360348038446</v>
+        <v>99.92360348038433</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
